--- a/GenericPlatformPackageSNAP.xlsx
+++ b/GenericPlatformPackageSNAP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -103,24 +103,15 @@
     <x:t>TC_02_02</x:t>
   </x:si>
   <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
     <x:t>Verify that user does not enter value in the username field</x:t>
   </x:si>
   <x:si>
     <x:t>Username field should be blank</x:t>
   </x:si>
   <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
     <x:t>Verify the user is able to input data in the Password text box</x:t>
   </x:si>
   <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">Error message should be displayed </x:t>
   </x:si>
   <x:si>
@@ -130,69 +121,42 @@
     <x:t>TC_02_03</x:t>
   </x:si>
   <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
     <x:t>Verify the user is able to input data in the text box</x:t>
   </x:si>
   <x:si>
     <x:t>User should be able to input valid data into the username text box</x:t>
   </x:si>
   <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
     <x:t>Verify that user does not enter value in the Password field</x:t>
   </x:si>
   <x:si>
     <x:t>Password field should be blank</x:t>
   </x:si>
   <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
     <x:t>TestScenario_4</x:t>
   </x:si>
   <x:si>
     <x:t>TC_02_04</x:t>
   </x:si>
   <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
     <x:t>Verify the user does not input data in the Username text box</x:t>
   </x:si>
   <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
     <x:t>TestScenario_5</x:t>
   </x:si>
   <x:si>
     <x:t>TC_02_05</x:t>
   </x:si>
   <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
     <x:t>Verify the user is able to input incorrect data in the Username text box</x:t>
   </x:si>
   <x:si>
     <x:t>User should be able to input invalid data into the text box</x:t>
   </x:si>
   <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
     <x:t>Verify the user is able to input Correct data in the Password text box</x:t>
   </x:si>
   <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
     <x:t>Click on Login</x:t>
   </x:si>
   <x:si>
@@ -205,45 +169,24 @@
     <x:t>TC_02_06</x:t>
   </x:si>
   <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
     <x:t>Verify the user is able to input correct data in the Username text box</x:t>
   </x:si>
   <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
     <x:t>Verify the user is able to input inCorrect data in the Password text box</x:t>
   </x:si>
   <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
     <x:t>TestScenario_7</x:t>
   </x:si>
   <x:si>
     <x:t>TC_02_07</x:t>
   </x:si>
   <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
     <x:t>TestScenario_8</x:t>
   </x:si>
   <x:si>
     <x:t>TC_03_01</x:t>
   </x:si>
   <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
     <x:t>Verify that able to click on Registration link</x:t>
   </x:si>
   <x:si>
@@ -256,12 +199,6 @@
     <x:t>TC_03_03</x:t>
   </x:si>
   <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
     <x:t>Verify that we are able to click on "Close Icon"</x:t>
   </x:si>
   <x:si>
@@ -274,12 +211,6 @@
     <x:t>TC_03_04</x:t>
   </x:si>
   <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">Verify that without entering any of the Mandatory fields and clicking on "Register/Validate" button </x:t>
   </x:si>
   <x:si>
@@ -292,9 +223,6 @@
     <x:t>TC_04_01</x:t>
   </x:si>
   <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
     <x:t>Verify that we are able to click on HomeIcon</x:t>
   </x:si>
   <x:si>
@@ -307,19 +235,10 @@
     <x:t>TC_04_02</x:t>
   </x:si>
   <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
     <x:t>Verify that in HomeIcon page click on Support links</x:t>
   </x:si>
   <x:si>
     <x:t>Clicking on Support Icon navigates to the Support Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
   </x:si>
   <x:si>
     <x:t>Verify that we are able to click on the Exit link</x:t>
@@ -329,10 +248,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
+    <x:t>6</x:t>
   </x:si>
   <x:si>
     <x:t>Verify that we are able to click on Company Link</x:t>
@@ -341,7 +257,7 @@
     <x:t>company link will be clicked</x:t>
   </x:si>
   <x:si>
-    <x:t>35</x:t>
+    <x:t>7</x:t>
   </x:si>
   <x:si>
     <x:t>Verify that we are able to click on Privacy Link</x:t>
@@ -350,13 +266,13 @@
     <x:t>privacy link will be clicked</x:t>
   </x:si>
   <x:si>
-    <x:t>36</x:t>
+    <x:t>8</x:t>
   </x:si>
   <x:si>
     <x:t>Verify that we are able to click on Support Link</x:t>
   </x:si>
   <x:si>
-    <x:t>37</x:t>
+    <x:t>9</x:t>
   </x:si>
   <x:si>
     <x:t>Verify that without entering any data and click on send button</x:t>
@@ -366,7 +282,7 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>38</x:t>
+    <x:t>10</x:t>
   </x:si>
   <x:si>
     <x:t>Verify that we are able to click on HomeLink</x:t>
@@ -456,8 +372,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K39" totalsRowShown="0">
-  <x:autoFilter ref="A1:K39"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K50" totalsRowShown="0">
+  <x:autoFilter ref="A1:K50"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -763,7 +679,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K39"/>
+  <x:dimension ref="A1:K50"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -927,13 +843,13 @@
       <x:c r="D7" s="0" t="s"/>
       <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
@@ -946,13 +862,13 @@
       <x:c r="D8" s="0" t="s"/>
       <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
@@ -965,55 +881,55 @@
       <x:c r="D9" s="0" t="s"/>
       <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
       <x:c r="K9" s="0" t="s"/>
     </x:row>
     <x:row r="10" spans="1:11">
-      <x:c r="A10" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
       <x:c r="C10" s="0" t="s"/>
       <x:c r="D10" s="0" t="s"/>
       <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
       <x:c r="K10" s="0" t="s"/>
     </x:row>
     <x:row r="11" spans="1:11">
-      <x:c r="A11" s="0" t="s"/>
-      <x:c r="B11" s="0" t="s"/>
+      <x:c r="A11" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
       <x:c r="C11" s="0" t="s"/>
       <x:c r="D11" s="0" t="s"/>
       <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
@@ -1026,36 +942,32 @@
       <x:c r="D12" s="0" t="s"/>
       <x:c r="E12" s="0" t="s"/>
       <x:c r="F12" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
       <x:c r="K12" s="0" t="s"/>
     </x:row>
     <x:row r="13" spans="1:11">
-      <x:c r="A13" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
       <x:c r="C13" s="0" t="s"/>
       <x:c r="D13" s="0" t="s"/>
       <x:c r="E13" s="0" t="s"/>
       <x:c r="F13" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
@@ -1068,55 +980,55 @@
       <x:c r="D14" s="0" t="s"/>
       <x:c r="E14" s="0" t="s"/>
       <x:c r="F14" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
       <x:c r="K14" s="0" t="s"/>
     </x:row>
     <x:row r="15" spans="1:11">
-      <x:c r="A15" s="0" t="s"/>
-      <x:c r="B15" s="0" t="s"/>
+      <x:c r="A15" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="C15" s="0" t="s"/>
       <x:c r="D15" s="0" t="s"/>
       <x:c r="E15" s="0" t="s"/>
       <x:c r="F15" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
       <x:c r="K15" s="0" t="s"/>
     </x:row>
     <x:row r="16" spans="1:11">
-      <x:c r="A16" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
+      <x:c r="A16" s="0" t="s"/>
+      <x:c r="B16" s="0" t="s"/>
       <x:c r="C16" s="0" t="s"/>
       <x:c r="D16" s="0" t="s"/>
       <x:c r="E16" s="0" t="s"/>
       <x:c r="F16" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
@@ -1129,13 +1041,13 @@
       <x:c r="D17" s="0" t="s"/>
       <x:c r="E17" s="0" t="s"/>
       <x:c r="F17" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
@@ -1148,13 +1060,13 @@
       <x:c r="D18" s="0" t="s"/>
       <x:c r="E18" s="0" t="s"/>
       <x:c r="F18" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
@@ -1162,22 +1074,22 @@
     </x:row>
     <x:row r="19" spans="1:11">
       <x:c r="A19" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s"/>
       <x:c r="D19" s="0" t="s"/>
       <x:c r="E19" s="0" t="s"/>
       <x:c r="F19" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s"/>
       <x:c r="J19" s="0" t="s"/>
@@ -1190,13 +1102,13 @@
       <x:c r="D20" s="0" t="s"/>
       <x:c r="E20" s="0" t="s"/>
       <x:c r="F20" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s"/>
       <x:c r="J20" s="0" t="s"/>
@@ -1209,55 +1121,55 @@
       <x:c r="D21" s="0" t="s"/>
       <x:c r="E21" s="0" t="s"/>
       <x:c r="F21" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s"/>
       <x:c r="J21" s="0" t="s"/>
       <x:c r="K21" s="0" t="s"/>
     </x:row>
     <x:row r="22" spans="1:11">
-      <x:c r="A22" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="B22" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
+      <x:c r="A22" s="0" t="s"/>
+      <x:c r="B22" s="0" t="s"/>
       <x:c r="C22" s="0" t="s"/>
       <x:c r="D22" s="0" t="s"/>
       <x:c r="E22" s="0" t="s"/>
       <x:c r="F22" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H22" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s"/>
       <x:c r="J22" s="0" t="s"/>
       <x:c r="K22" s="0" t="s"/>
     </x:row>
     <x:row r="23" spans="1:11">
-      <x:c r="A23" s="0" t="s"/>
-      <x:c r="B23" s="0" t="s"/>
+      <x:c r="A23" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
       <x:c r="C23" s="0" t="s"/>
       <x:c r="D23" s="0" t="s"/>
       <x:c r="E23" s="0" t="s"/>
       <x:c r="F23" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H23" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s"/>
       <x:c r="J23" s="0" t="s"/>
@@ -1270,101 +1182,93 @@
       <x:c r="D24" s="0" t="s"/>
       <x:c r="E24" s="0" t="s"/>
       <x:c r="F24" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H24" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s"/>
       <x:c r="J24" s="0" t="s"/>
       <x:c r="K24" s="0" t="s"/>
     </x:row>
     <x:row r="25" spans="1:11">
-      <x:c r="A25" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="B25" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
+      <x:c r="A25" s="0" t="s"/>
+      <x:c r="B25" s="0" t="s"/>
       <x:c r="C25" s="0" t="s"/>
       <x:c r="D25" s="0" t="s"/>
       <x:c r="E25" s="0" t="s"/>
       <x:c r="F25" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s"/>
       <x:c r="J25" s="0" t="s"/>
       <x:c r="K25" s="0" t="s"/>
     </x:row>
     <x:row r="26" spans="1:11">
-      <x:c r="A26" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="B26" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
+      <x:c r="A26" s="0" t="s"/>
+      <x:c r="B26" s="0" t="s"/>
       <x:c r="C26" s="0" t="s"/>
       <x:c r="D26" s="0" t="s"/>
       <x:c r="E26" s="0" t="s"/>
       <x:c r="F26" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H26" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s"/>
       <x:c r="J26" s="0" t="s"/>
       <x:c r="K26" s="0" t="s"/>
     </x:row>
     <x:row r="27" spans="1:11">
-      <x:c r="A27" s="0" t="s"/>
-      <x:c r="B27" s="0" t="s"/>
+      <x:c r="A27" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
       <x:c r="C27" s="0" t="s"/>
       <x:c r="D27" s="0" t="s"/>
       <x:c r="E27" s="0" t="s"/>
       <x:c r="F27" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H27" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s"/>
       <x:c r="J27" s="0" t="s"/>
       <x:c r="K27" s="0" t="s"/>
     </x:row>
     <x:row r="28" spans="1:11">
-      <x:c r="A28" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="B28" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
+      <x:c r="A28" s="0" t="s"/>
+      <x:c r="B28" s="0" t="s"/>
       <x:c r="C28" s="0" t="s"/>
       <x:c r="D28" s="0" t="s"/>
       <x:c r="E28" s="0" t="s"/>
       <x:c r="F28" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H28" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s"/>
       <x:c r="J28" s="0" t="s"/>
@@ -1377,36 +1281,32 @@
       <x:c r="D29" s="0" t="s"/>
       <x:c r="E29" s="0" t="s"/>
       <x:c r="F29" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H29" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I29" s="0" t="s"/>
       <x:c r="J29" s="0" t="s"/>
       <x:c r="K29" s="0" t="s"/>
     </x:row>
     <x:row r="30" spans="1:11">
-      <x:c r="A30" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="B30" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
+      <x:c r="A30" s="0" t="s"/>
+      <x:c r="B30" s="0" t="s"/>
       <x:c r="C30" s="0" t="s"/>
       <x:c r="D30" s="0" t="s"/>
       <x:c r="E30" s="0" t="s"/>
       <x:c r="F30" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H30" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I30" s="0" t="s"/>
       <x:c r="J30" s="0" t="s"/>
@@ -1414,22 +1314,22 @@
     </x:row>
     <x:row r="31" spans="1:11">
       <x:c r="A31" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s"/>
       <x:c r="D31" s="0" t="s"/>
       <x:c r="E31" s="0" t="s"/>
       <x:c r="F31" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H31" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I31" s="0" t="s"/>
       <x:c r="J31" s="0" t="s"/>
@@ -1442,32 +1342,36 @@
       <x:c r="D32" s="0" t="s"/>
       <x:c r="E32" s="0" t="s"/>
       <x:c r="F32" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H32" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s"/>
       <x:c r="J32" s="0" t="s"/>
       <x:c r="K32" s="0" t="s"/>
     </x:row>
     <x:row r="33" spans="1:11">
-      <x:c r="A33" s="0" t="s"/>
-      <x:c r="B33" s="0" t="s"/>
+      <x:c r="A33" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
       <x:c r="C33" s="0" t="s"/>
       <x:c r="D33" s="0" t="s"/>
       <x:c r="E33" s="0" t="s"/>
       <x:c r="F33" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H33" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s"/>
       <x:c r="J33" s="0" t="s"/>
@@ -1480,13 +1384,13 @@
       <x:c r="D34" s="0" t="s"/>
       <x:c r="E34" s="0" t="s"/>
       <x:c r="F34" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H34" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I34" s="0" t="s"/>
       <x:c r="J34" s="0" t="s"/>
@@ -1499,32 +1403,36 @@
       <x:c r="D35" s="0" t="s"/>
       <x:c r="E35" s="0" t="s"/>
       <x:c r="F35" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H35" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I35" s="0" t="s"/>
       <x:c r="J35" s="0" t="s"/>
       <x:c r="K35" s="0" t="s"/>
     </x:row>
     <x:row r="36" spans="1:11">
-      <x:c r="A36" s="0" t="s"/>
-      <x:c r="B36" s="0" t="s"/>
+      <x:c r="A36" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
       <x:c r="C36" s="0" t="s"/>
       <x:c r="D36" s="0" t="s"/>
       <x:c r="E36" s="0" t="s"/>
       <x:c r="F36" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H36" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I36" s="0" t="s"/>
       <x:c r="J36" s="0" t="s"/>
@@ -1537,13 +1445,13 @@
       <x:c r="D37" s="0" t="s"/>
       <x:c r="E37" s="0" t="s"/>
       <x:c r="F37" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H37" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I37" s="0" t="s"/>
       <x:c r="J37" s="0" t="s"/>
@@ -1556,36 +1464,253 @@
       <x:c r="D38" s="0" t="s"/>
       <x:c r="E38" s="0" t="s"/>
       <x:c r="F38" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G38" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H38" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I38" s="0" t="s"/>
       <x:c r="J38" s="0" t="s"/>
       <x:c r="K38" s="0" t="s"/>
     </x:row>
     <x:row r="39" spans="1:11">
-      <x:c r="A39" s="0" t="s"/>
-      <x:c r="B39" s="0" t="s"/>
+      <x:c r="A39" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
       <x:c r="C39" s="0" t="s"/>
       <x:c r="D39" s="0" t="s"/>
       <x:c r="E39" s="0" t="s"/>
       <x:c r="F39" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H39" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I39" s="0" t="s"/>
       <x:c r="J39" s="0" t="s"/>
       <x:c r="K39" s="0" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:11">
+      <x:c r="A40" s="0" t="s"/>
+      <x:c r="B40" s="0" t="s"/>
+      <x:c r="C40" s="0" t="s"/>
+      <x:c r="D40" s="0" t="s"/>
+      <x:c r="E40" s="0" t="s"/>
+      <x:c r="F40" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I40" s="0" t="s"/>
+      <x:c r="J40" s="0" t="s"/>
+      <x:c r="K40" s="0" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:11">
+      <x:c r="A41" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s"/>
+      <x:c r="D41" s="0" t="s"/>
+      <x:c r="E41" s="0" t="s"/>
+      <x:c r="F41" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="s"/>
+      <x:c r="J41" s="0" t="s"/>
+      <x:c r="K41" s="0" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:11">
+      <x:c r="A42" s="0" t="s"/>
+      <x:c r="B42" s="0" t="s"/>
+      <x:c r="C42" s="0" t="s"/>
+      <x:c r="D42" s="0" t="s"/>
+      <x:c r="E42" s="0" t="s"/>
+      <x:c r="F42" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="s"/>
+      <x:c r="J42" s="0" t="s"/>
+      <x:c r="K42" s="0" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:11">
+      <x:c r="A43" s="0" t="s"/>
+      <x:c r="B43" s="0" t="s"/>
+      <x:c r="C43" s="0" t="s"/>
+      <x:c r="D43" s="0" t="s"/>
+      <x:c r="E43" s="0" t="s"/>
+      <x:c r="F43" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="I43" s="0" t="s"/>
+      <x:c r="J43" s="0" t="s"/>
+      <x:c r="K43" s="0" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:11">
+      <x:c r="A44" s="0" t="s"/>
+      <x:c r="B44" s="0" t="s"/>
+      <x:c r="C44" s="0" t="s"/>
+      <x:c r="D44" s="0" t="s"/>
+      <x:c r="E44" s="0" t="s"/>
+      <x:c r="F44" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s"/>
+      <x:c r="J44" s="0" t="s"/>
+      <x:c r="K44" s="0" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:11">
+      <x:c r="A45" s="0" t="s"/>
+      <x:c r="B45" s="0" t="s"/>
+      <x:c r="C45" s="0" t="s"/>
+      <x:c r="D45" s="0" t="s"/>
+      <x:c r="E45" s="0" t="s"/>
+      <x:c r="F45" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="s"/>
+      <x:c r="J45" s="0" t="s"/>
+      <x:c r="K45" s="0" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:11">
+      <x:c r="A46" s="0" t="s"/>
+      <x:c r="B46" s="0" t="s"/>
+      <x:c r="C46" s="0" t="s"/>
+      <x:c r="D46" s="0" t="s"/>
+      <x:c r="E46" s="0" t="s"/>
+      <x:c r="F46" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="s"/>
+      <x:c r="J46" s="0" t="s"/>
+      <x:c r="K46" s="0" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:11">
+      <x:c r="A47" s="0" t="s"/>
+      <x:c r="B47" s="0" t="s"/>
+      <x:c r="C47" s="0" t="s"/>
+      <x:c r="D47" s="0" t="s"/>
+      <x:c r="E47" s="0" t="s"/>
+      <x:c r="F47" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s"/>
+      <x:c r="J47" s="0" t="s"/>
+      <x:c r="K47" s="0" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:11">
+      <x:c r="A48" s="0" t="s"/>
+      <x:c r="B48" s="0" t="s"/>
+      <x:c r="C48" s="0" t="s"/>
+      <x:c r="D48" s="0" t="s"/>
+      <x:c r="E48" s="0" t="s"/>
+      <x:c r="F48" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="s"/>
+      <x:c r="J48" s="0" t="s"/>
+      <x:c r="K48" s="0" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:11">
+      <x:c r="A49" s="0" t="s"/>
+      <x:c r="B49" s="0" t="s"/>
+      <x:c r="C49" s="0" t="s"/>
+      <x:c r="D49" s="0" t="s"/>
+      <x:c r="E49" s="0" t="s"/>
+      <x:c r="F49" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s"/>
+      <x:c r="J49" s="0" t="s"/>
+      <x:c r="K49" s="0" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:11">
+      <x:c r="A50" s="0" t="s"/>
+      <x:c r="B50" s="0" t="s"/>
+      <x:c r="C50" s="0" t="s"/>
+      <x:c r="D50" s="0" t="s"/>
+      <x:c r="E50" s="0" t="s"/>
+      <x:c r="F50" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="s"/>
+      <x:c r="J50" s="0" t="s"/>
+      <x:c r="K50" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
